--- a/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-encounter.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T10:17:42+00:00</t>
+    <t>2023-02-06T10:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
